--- a/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SelectObjectConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA71F62-1EEF-4786-98F7-EFA3BF61026C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA41FD5E-C93F-4F4E-92C5-60DFAFBE6BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1424,7 +1424,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>153</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SelectObjectConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SelectObjectConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF058DF-AEBE-4AD5-834F-6BCF860F929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37C31BE-BD32-4AEB-ABDC-B6D0D54DE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="玩家施法范围预览" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="409">
   <si>
     <t>##var</t>
   </si>
@@ -824,9 +836,6 @@
     <t>SelectObjectUnitTypeNone</t>
   </si>
   <si>
-    <t>ActionCallAutoUnitOne</t>
-  </si>
-  <si>
     <t>true;true;4;40</t>
   </si>
   <si>
@@ -882,9 +891,6 @@
   </si>
   <si>
     <t>怪物技能-蛋3</t>
-  </si>
-  <si>
-    <t>true;true;4.5;360</t>
   </si>
   <si>
     <t>加速怪1对象选择</t>
@@ -1111,6 +1117,211 @@
   </si>
   <si>
     <t>true;true;4.25;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;100;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Gui2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-鬼2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-龙2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Long2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-龙3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Long3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Xueren3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-雪人3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-雪人3-伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Attack_Monster_Xueren3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;3;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallSelectLast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectUnitTypeHostile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-乌龟3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_WuGui3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;3.5;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高血量优先</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Self_Unit</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Self_Unit</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Self_Area</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Self_Area</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Self_OtherUnit</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Self_OtherUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Self_OtherArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Self_OtherArea</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Self_RectangleArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Self_RectangleArea</t>
+  </si>
+  <si>
+    <t>true;true;4;10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Self_UmbellateArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Self_UmbellateArea</t>
+  </si>
+  <si>
+    <t>true;true;10;90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Camera_Unit</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Camera_Unit</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Camera_Area</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Camera_Area</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Camera_RectangleArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Camera_RectangleArea</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Camera_UmbellateArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Camera_UmbellateArea</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_Unit</t>
+  </si>
+  <si>
+    <t>预览-自身-单体</t>
+  </si>
+  <si>
+    <t>预览-自身-范围</t>
+  </si>
+  <si>
+    <t>预览-远处-单体</t>
+  </si>
+  <si>
+    <t>预览-远处-范围</t>
+  </si>
+  <si>
+    <t>预览-指定方向-矩形</t>
+  </si>
+  <si>
+    <t>预览-指定方向-扇形</t>
+  </si>
+  <si>
+    <t>预览-投射点-附近单体</t>
+  </si>
+  <si>
+    <t>预览-投射点-范围</t>
+  </si>
+  <si>
+    <t>预览-投射点-指定方向-矩形</t>
+  </si>
+  <si>
+    <t>预览-投射点-指定方向-扇形</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_Area</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接在pos处</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定unit</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_RectangleArea</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_UmbellateArea</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Attack_FireSea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火海伤害对象选择</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;3;360</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1118,7 +1329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,6 +1372,20 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1272,7 +1497,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -1300,6 +1525,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1323,7 +1551,17 @@
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="好 3" xfId="3" xr:uid="{DCAAA978-F80A-40DE-8FAA-894F5C730A0E}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1635,36 +1873,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE138"/>
+  <dimension ref="A1:AE147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N49" sqref="N49:N81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="9" customWidth="1"/>
-    <col min="2" max="3" width="5.375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="37" style="9" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="9" customWidth="1"/>
-    <col min="9" max="10" width="10.625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="9" customWidth="1"/>
-    <col min="12" max="13" width="10.375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="9" customWidth="1"/>
-    <col min="15" max="15" width="35.5" style="9" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="19.5" style="9" customWidth="1"/>
-    <col min="18" max="18" width="9" style="9"/>
-    <col min="19" max="19" width="36.25" style="9" customWidth="1"/>
-    <col min="20" max="20" width="20.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="5.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="9" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="28.77734375" style="9" customWidth="1"/>
+    <col min="16" max="16" width="6.21875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" style="9" customWidth="1"/>
+    <col min="18" max="18" width="5" style="9" customWidth="1"/>
+    <col min="19" max="19" width="29.21875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="20.21875" style="9" customWidth="1"/>
     <col min="21" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1698,25 +1937,25 @@
         <v>60</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="P1" s="18"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="20"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -1729,7 +1968,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +2011,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1811,20 +2050,20 @@
       <c r="N3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="P3" s="21"/>
+      <c r="O3" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="P3" s="22"/>
       <c r="Q3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="21"/>
+      <c r="T3" s="22"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -1837,7 +2076,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1874,7 +2113,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -1908,16 +2147,16 @@
         <v>55</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>58</v>
@@ -1943,7 +2182,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
         <v>100</v>
       </c>
@@ -1972,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>238</v>
+        <v>363</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>239</v>
@@ -1987,7 +2226,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D7" s="9" t="s">
         <v>101</v>
       </c>
@@ -2031,7 +2270,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D8" s="9" t="s">
         <v>102</v>
       </c>
@@ -2075,7 +2314,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D9" s="9" t="s">
         <v>103</v>
       </c>
@@ -2119,7 +2358,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
         <v>104</v>
       </c>
@@ -2163,7 +2402,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
         <v>105</v>
       </c>
@@ -2207,7 +2446,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D12" s="9" t="s">
         <v>106</v>
       </c>
@@ -2251,7 +2490,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
         <v>107</v>
       </c>
@@ -2295,7 +2534,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D14" s="9" t="s">
         <v>108</v>
       </c>
@@ -2339,7 +2578,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D15" s="9" t="s">
         <v>109</v>
       </c>
@@ -2383,7 +2622,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D16" s="9" t="s">
         <v>110</v>
       </c>
@@ -2427,7 +2666,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D17" s="9" t="s">
         <v>111</v>
       </c>
@@ -2471,7 +2710,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D18" s="9" t="s">
         <v>112</v>
       </c>
@@ -2515,7 +2754,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D19" s="9" t="s">
         <v>113</v>
       </c>
@@ -2559,7 +2798,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D20" s="9" t="s">
         <v>114</v>
       </c>
@@ -2603,7 +2842,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D21" s="9" t="s">
         <v>115</v>
       </c>
@@ -2647,7 +2886,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D22" s="9" t="s">
         <v>116</v>
       </c>
@@ -2691,7 +2930,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D23" s="9" t="s">
         <v>117</v>
       </c>
@@ -2735,7 +2974,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D24" s="9" t="s">
         <v>118</v>
       </c>
@@ -2779,7 +3018,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D25" s="9" t="s">
         <v>119</v>
       </c>
@@ -2823,7 +3062,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D26" s="9" t="s">
         <v>120</v>
       </c>
@@ -2867,7 +3106,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
         <v>121</v>
       </c>
@@ -2911,7 +3150,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D28" s="15" t="s">
         <v>122</v>
       </c>
@@ -2955,7 +3194,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D29" s="15" t="s">
         <v>123</v>
       </c>
@@ -2999,7 +3238,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D30" s="9" t="s">
         <v>124</v>
       </c>
@@ -3043,7 +3282,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D31" s="9" t="s">
         <v>125</v>
       </c>
@@ -3087,7 +3326,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D32" s="9" t="s">
         <v>126</v>
       </c>
@@ -3131,7 +3370,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D33" s="13" t="s">
         <v>127</v>
       </c>
@@ -3175,7 +3414,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D34" s="13" t="s">
         <v>128</v>
       </c>
@@ -3219,7 +3458,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D35" s="13" t="s">
         <v>129</v>
       </c>
@@ -3263,7 +3502,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D36" s="13" t="s">
         <v>187</v>
       </c>
@@ -3307,7 +3546,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D37" s="13" t="s">
         <v>188</v>
       </c>
@@ -3351,7 +3590,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D38" s="13" t="s">
         <v>189</v>
       </c>
@@ -3395,7 +3634,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D39" s="9" t="s">
         <v>193</v>
       </c>
@@ -3439,7 +3678,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D40" s="9" t="s">
         <v>194</v>
       </c>
@@ -3483,7 +3722,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D41" s="9" t="s">
         <v>195</v>
       </c>
@@ -3527,7 +3766,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D42" s="13" t="s">
         <v>200</v>
       </c>
@@ -3571,7 +3810,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D43" s="13" t="s">
         <v>201</v>
       </c>
@@ -3615,7 +3854,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D44" s="13" t="s">
         <v>202</v>
       </c>
@@ -3659,7 +3898,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D45" s="13" t="s">
         <v>215</v>
       </c>
@@ -3703,7 +3942,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D46" s="13" t="s">
         <v>216</v>
       </c>
@@ -3747,7 +3986,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D47" s="13" t="s">
         <v>217</v>
       </c>
@@ -3791,10 +4030,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D49" s="11" t="s">
         <v>130</v>
       </c>
@@ -3823,10 +4062,10 @@
         <v>257</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="4:20" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D50" s="11" t="s">
         <v>131</v>
       </c>
@@ -3855,10 +4094,10 @@
         <v>257</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D51" s="11" t="s">
         <v>132</v>
       </c>
@@ -3887,10 +4126,10 @@
         <v>257</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="52" spans="4:20" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D52" s="11" t="s">
         <v>133</v>
       </c>
@@ -3928,7 +4167,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D53" s="11" t="s">
         <v>134</v>
       </c>
@@ -3966,7 +4205,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D54" s="11" t="s">
         <v>135</v>
       </c>
@@ -4004,7 +4243,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D55" s="11" t="s">
         <v>136</v>
       </c>
@@ -4039,10 +4278,10 @@
         <v>30</v>
       </c>
       <c r="T55" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D56" s="11" t="s">
         <v>137</v>
       </c>
@@ -4077,10 +4316,10 @@
         <v>30</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D57" s="11" t="s">
         <v>138</v>
       </c>
@@ -4115,10 +4354,10 @@
         <v>30</v>
       </c>
       <c r="T57" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D58" s="9" t="s">
         <v>139</v>
       </c>
@@ -4156,7 +4395,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D59" s="9" t="s">
         <v>140</v>
       </c>
@@ -4194,7 +4433,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D60" s="9" t="s">
         <v>141</v>
       </c>
@@ -4232,7 +4471,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D61" s="9" t="s">
         <v>142</v>
       </c>
@@ -4261,10 +4500,10 @@
         <v>257</v>
       </c>
       <c r="S61" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="4:20" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D62" s="9" t="s">
         <v>143</v>
       </c>
@@ -4293,10 +4532,10 @@
         <v>257</v>
       </c>
       <c r="S62" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="4:20" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="s">
         <v>144</v>
       </c>
@@ -4325,10 +4564,10 @@
         <v>257</v>
       </c>
       <c r="S63" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="64" spans="4:20" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D64" s="9" t="s">
         <v>145</v>
       </c>
@@ -4357,10 +4596,10 @@
         <v>257</v>
       </c>
       <c r="S64" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="4:20" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="s">
         <v>146</v>
       </c>
@@ -4389,10 +4628,10 @@
         <v>257</v>
       </c>
       <c r="S65" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="4:20" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D66" s="9" t="s">
         <v>147</v>
       </c>
@@ -4421,10 +4660,10 @@
         <v>257</v>
       </c>
       <c r="S66" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="67" spans="4:20" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D67" s="9" t="s">
         <v>148</v>
       </c>
@@ -4462,7 +4701,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D68" s="9" t="s">
         <v>149</v>
       </c>
@@ -4500,7 +4739,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D69" s="9" t="s">
         <v>150</v>
       </c>
@@ -4538,45 +4777,45 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D70" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E70" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G70" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M70" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N70" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O70" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G70" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M70" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N70" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O70" s="9" t="s">
+      <c r="P70" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S70" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T70" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="P70" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S70" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T70" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="71" spans="4:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D71" s="9" t="s">
         <v>152</v>
       </c>
@@ -4602,19 +4841,19 @@
         <v>0</v>
       </c>
       <c r="O71" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S71" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T71" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="P71" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S71" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T71" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="4:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D72" s="9" t="s">
         <v>153</v>
       </c>
@@ -4640,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P72" s="9" t="s">
         <v>239</v>
@@ -4649,15 +4888,15 @@
         <v>29</v>
       </c>
       <c r="T72" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" spans="4:20" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D73" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G73" s="9" t="b">
         <v>1</v>
@@ -4690,7 +4929,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D74" s="11" t="s">
         <v>155</v>
       </c>
@@ -4728,7 +4967,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D75" s="11" t="s">
         <v>156</v>
       </c>
@@ -4766,7 +5005,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D76" s="11" t="s">
         <v>209</v>
       </c>
@@ -4804,7 +5043,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D77" s="11" t="s">
         <v>210</v>
       </c>
@@ -4842,7 +5081,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D78" s="11" t="s">
         <v>211</v>
       </c>
@@ -4880,12 +5119,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D79" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="G79" s="9" t="b">
         <v>1</v>
@@ -4918,9 +5157,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="4:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D80" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>226</v>
@@ -4956,9 +5195,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>227</v>
@@ -4994,85 +5233,85 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D83" s="9" t="s">
         <v>157</v>
       </c>
       <c r="E83" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N83" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S83" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T83" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D84" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G83" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M83" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N83" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O83" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P83" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S83" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T83" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D84" s="9" t="s">
+      <c r="E84" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="G84" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M84" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N84" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O84" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P84" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S84" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T84" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G84" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M84" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N84" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O84" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P84" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S84" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T84" s="9" t="s">
+    </row>
+    <row r="85" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D85" s="9" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D85" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>232</v>
@@ -5096,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P85" s="9" t="s">
         <v>239</v>
@@ -5108,9 +5347,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D86" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>233</v>
@@ -5134,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P86" s="9" t="s">
         <v>239</v>
@@ -5146,1473 +5385,1757 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D87" s="1" t="s">
+    <row r="87" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D87" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G87" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M87" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N87" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P87" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S87" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T87" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E88" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="G88" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M88" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N88" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O88" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P88" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S88" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T88" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="G87" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M87" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N87" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O87" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P87" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S87" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T87" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D88" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E88" s="16" t="s">
+      <c r="G89" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="9">
+        <v>1</v>
+      </c>
+      <c r="M89" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N89" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P89" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S89" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T89" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D90" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M90" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N90" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S90" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D91" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G91" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M91" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N91" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P91" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S91" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T91" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D92" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G92" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M92" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P92" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S92" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T92" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D93" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G93" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M93" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P93" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S93" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T93" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D94" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G94" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="9">
+        <v>1</v>
+      </c>
+      <c r="M94" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P94" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q94" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="S94" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T94" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D95" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="9">
+        <v>1</v>
+      </c>
+      <c r="M95" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N95" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P95" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q95" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="S95" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T95" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D96" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G96" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M96" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P96" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S96" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T96" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D97" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G97" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M97" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P97" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S97" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T97" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D98" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="G88" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M88" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N88" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O88" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P88" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S88" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T88" s="9" t="s">
+      <c r="G98" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M98" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N98" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O98" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P98" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S98" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T98" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D89" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E89" s="16" t="s">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D99" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M99" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P99" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S99" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T99" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D100" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G100" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M100" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P100" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S100" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T100" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D102" s="14"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M103" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N103" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O103" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S103" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="G105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M105" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N105" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O105" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S105" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B108" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G108" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K108" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="9">
+        <v>1</v>
+      </c>
+      <c r="M108" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N108" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O108" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P108" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q108" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S108" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T108" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G109" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M109" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N109" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O109" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P109" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S109" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T109" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B110" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G110" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M110" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N110" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P110" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S110" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T110" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="G89" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M89" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N89" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O89" s="9" t="s">
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B111" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G111" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M111" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N111" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P111" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S111" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T111" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G112" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K112" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="9">
+        <v>1</v>
+      </c>
+      <c r="M112" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N112" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P112" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q112" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S112" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T112" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B113" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G113" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M113" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N113" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P113" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S113" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T113" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G114" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M114" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N114" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O114" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P114" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S114" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T114" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B116" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G116" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="9">
+        <v>1</v>
+      </c>
+      <c r="M116" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N116" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O116" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P116" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q116" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S116" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T116" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B117" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G117" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M117" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N117" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P117" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S117" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T117" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="P89" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S89" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T89" s="9" t="s">
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B118" s="9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D90" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G90" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M90" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N90" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O90" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P90" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S90" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T90" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D91" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G91" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M91" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N91" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O91" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P91" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S91" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T91" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D92" s="14"/>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D93" s="14"/>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B94" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G94" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M94" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N94" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O94" s="9" t="s">
+      <c r="C118" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G118" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K118" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="9">
+        <v>1</v>
+      </c>
+      <c r="M118" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N118" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O118" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P118" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q118" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S118" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T118" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B119" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O119" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P119" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S119" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T119" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M122" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N122" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O122" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="S94" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B96" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C96" s="9" t="s">
+      <c r="S122" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G96" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M96" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N96" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O96" s="9" t="s">
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B124" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M124" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N124" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O124" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="S96" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E97" s="10"/>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E98" s="10"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B99" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G99" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K99" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="9">
-        <v>1</v>
-      </c>
-      <c r="M99" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N99" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O99" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P99" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q99" s="9" t="s">
+      <c r="S124" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B125" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M125" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N125" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O125" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S125" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B126" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K126" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M126" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N126" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O126" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S126" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B127" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K127" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M127" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N127" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O127" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S127" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B128" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K128" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M128" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N128" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O128" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S128" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B129" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K129" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M129" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N129" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O129" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S129" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B132" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="9">
+        <v>1</v>
+      </c>
+      <c r="M132" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N132" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O132" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P132" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q132" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="S132" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T132" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D134" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="9">
+        <v>1</v>
+      </c>
+      <c r="M134" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N134" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O134" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P134" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q134" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S99" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T99" s="9" t="s">
+      <c r="R134" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="S134" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T134" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B100" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G100" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K100" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L100" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M100" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N100" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O100" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P100" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S100" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T100" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B101" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G101" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K101" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M101" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N101" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O101" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P101" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S101" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T101" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B102" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="G102" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M102" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N102" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O102" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P102" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S102" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T102" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B103" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G103" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="9">
-        <v>1</v>
-      </c>
-      <c r="M103" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N103" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O103" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P103" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q103" s="9" t="s">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D136" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="P136" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S136" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T136" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D138" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="G138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="P138" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S138" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T138" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="16"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="16"/>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B142" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G142" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M142" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N142" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P142" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q142" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S103" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T103" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B104" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="G104" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M104" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N104" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O104" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P104" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S104" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T104" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B105" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G105" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K105" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M105" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N105" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O105" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P105" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S105" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T105" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B107" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="G107" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K107" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="9">
-        <v>1</v>
-      </c>
-      <c r="M107" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N107" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O107" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P107" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q107" s="9" t="s">
+      <c r="S142" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T142" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B143" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G143" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M143" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N143" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O143" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P143" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q143" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S107" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T107" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B108" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="G108" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K108" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M108" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N108" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O108" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P108" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S108" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T108" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B109" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G109" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K109" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="9">
-        <v>1</v>
-      </c>
-      <c r="M109" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N109" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O109" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P109" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q109" s="9" t="s">
+      <c r="S143" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T143" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B144" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G144" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M144" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N144" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q144" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S109" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T109" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B110" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="G110" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K110" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M110" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N110" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O110" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P110" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S110" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T110" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B113" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K113" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M113" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N113" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O113" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S113" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B115" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K115" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M115" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N115" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O115" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S115" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B116" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K116" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M116" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N116" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O116" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S116" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B117" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G117" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K117" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M117" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N117" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O117" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S117" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B118" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K118" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M118" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N118" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O118" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S118" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B119" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K119" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M119" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N119" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O119" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S119" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B120" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G120" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K120" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M120" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N120" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O120" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S120" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B123" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G123" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K123" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="9">
-        <v>1</v>
-      </c>
-      <c r="M123" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N123" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O123" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P123" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q123" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="S123" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T123" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D125" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G125" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K125" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="9">
-        <v>1</v>
-      </c>
-      <c r="M125" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N125" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O125" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P125" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q125" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R125" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="S125" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T125" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D127" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E127" s="13" t="s">
+      <c r="S144" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T144" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="G127" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K127" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M127" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N127" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O127" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="P127" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S127" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T127" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D129" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="G129" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K129" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M129" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N129" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O129" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="P129" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S129" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T129" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D131" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K131" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M131" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N131" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O131" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S131" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D132" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="G132" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K132" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M132" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N132" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O132" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P132" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S132" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T132" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D133" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F133" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="G133" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K133" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M133" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N133" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O133" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="P133" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S133" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T133" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="16"/>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="16"/>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B136" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="G136" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K136" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M136" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N136" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O136" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P136" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q136" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S136" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T136" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B137" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="G137" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K137" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M137" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N137" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O137" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P137" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q137" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S137" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T137" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B138" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="G138" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K138" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M138" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N138" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O138" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q138" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S138" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T138" s="9" t="s">
-        <v>328</v>
+    </row>
+    <row r="147" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D147" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G147" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K147" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M147" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N147" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P147" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S147" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T147" s="9" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6623,19 +7146,959 @@
     <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="D100">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D133:D135">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="D102">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D140:D141 D92">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3991BE-AF49-47D5-B3E6-1CE69C399D99}">
+  <dimension ref="A1:T22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.21875" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="34.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="20"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="22"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R8" s="9"/>
+      <c r="S8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" t="s">
+        <v>375</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" t="s">
+        <v>377</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" t="s">
+        <v>380</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>382</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" t="s">
+        <v>385</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" t="s">
+        <v>387</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="9"/>
+      <c r="S16" t="s">
+        <v>389</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="S3:T3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SelectObjectConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37C31BE-BD32-4AEB-ABDC-B6D0D54DE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA494E10-DBB2-4AEE-BE9A-D99D2E942A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="玩家施法范围预览" sheetId="2" r:id="rId2"/>
+    <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="433">
   <si>
     <t>##var</t>
   </si>
@@ -1192,62 +1192,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SelectObject_SkillShow_Self_Unit</t>
-  </si>
-  <si>
-    <t>ActionCallShow_Self_Unit</t>
-  </si>
-  <si>
-    <t>SelectObject_SkillShow_Self_Area</t>
-  </si>
-  <si>
-    <t>ActionCallShow_Self_Area</t>
-  </si>
-  <si>
-    <t>SelectObject_SkillShow_Self_OtherUnit</t>
-  </si>
-  <si>
-    <t>ActionCallShow_Self_OtherUnit</t>
-  </si>
-  <si>
-    <t>SelectObject_SkillShow_Self_OtherArea</t>
-  </si>
-  <si>
-    <t>ActionCallShow_Self_OtherArea</t>
-  </si>
-  <si>
-    <t>SelectObject_SkillShow_Self_RectangleArea</t>
-  </si>
-  <si>
-    <t>ActionCallShow_Self_RectangleArea</t>
-  </si>
-  <si>
     <t>true;true;4;10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SelectObject_SkillShow_Self_UmbellateArea</t>
-  </si>
-  <si>
-    <t>ActionCallShow_Self_UmbellateArea</t>
-  </si>
-  <si>
     <t>true;true;10;90</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SelectObject_SkillShow_Camera_Unit</t>
-  </si>
-  <si>
-    <t>ActionCallShow_Camera_Unit</t>
-  </si>
-  <si>
-    <t>SelectObject_SkillShow_Camera_Area</t>
-  </si>
-  <si>
-    <t>ActionCallShow_Camera_Area</t>
-  </si>
-  <si>
     <t>SelectObject_SkillShow_Camera_RectangleArea</t>
   </si>
   <si>
@@ -1260,9 +1212,6 @@
     <t>ActionCallShow_Camera_UmbellateArea</t>
   </si>
   <si>
-    <t>SelectObject_Skill_Camera_Unit</t>
-  </si>
-  <si>
     <t>预览-自身-单体</t>
   </si>
   <si>
@@ -1291,10 +1240,6 @@
   </si>
   <si>
     <t>预览-投射点-指定方向-扇形</t>
-  </si>
-  <si>
-    <t>SelectObject_Skill_Camera_Area</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>直接在pos处</t>
@@ -1323,6 +1268,158 @@
   <si>
     <t>true;true;3;360</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Drag_SelfUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Drag_SelfArea</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Drag_OtherUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Drag_OtherArea</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Drag_RectangleArea</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Drag_UmbellateArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Drag_SelfUnit</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Drag_SelfArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Drag_OtherUnit</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Drag_OtherArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Drag_RectangleArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Drag_UmbellateArea</t>
+  </si>
+  <si>
+    <t>SelectObject_PlayerSkill_BreakArmor_Hit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;2;360</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害敌方并降低护甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_PlayerSkill_IceBind_Hit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;4;360</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AttackHitPos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackHitPos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击发生位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOnAttackHitPos</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Buff_TimeBarrier_Friend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Buff_TimeBarrier_Enemy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界增益对象选择</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界减益对象选择</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;11;360</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;11;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_PlayerSkill_IceBind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_PlayerSkill_TimeBarrier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览范围</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotPlayer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Camera_OtherUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_SkillShow_Camera_OtherArea</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_OtherUnit</t>
+  </si>
+  <si>
+    <t>SelectObject_Skill_Camera_OtherArea</t>
+  </si>
+  <si>
+    <t>ActionCallShow_Camera_OtherUnit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallShow_Camera_OtherArea</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1497,7 +1594,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -1527,6 +1624,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1873,11 +1976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE147"/>
+  <dimension ref="A1:AE145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D148" sqref="D148"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70:T70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1942,20 +2045,20 @@
       <c r="N1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="20"/>
+      <c r="T1" s="22"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -2050,20 +2153,20 @@
       <c r="N3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="22"/>
+      <c r="T3" s="24"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -6788,174 +6891,207 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B132" s="9" t="s">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B130" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C130" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="G130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K130" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M130" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N130" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S130" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C133" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D133" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E133" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="G132" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K132" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="9">
-        <v>1</v>
-      </c>
-      <c r="M132" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N132" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O132" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P132" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q132" s="9" t="s">
+      <c r="G133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="9">
+        <v>1</v>
+      </c>
+      <c r="M133" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N133" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O133" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P133" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q133" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="S132" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T132" s="9" t="s">
+      <c r="S133" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T133" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D134" s="9" t="s">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D135" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G134" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K134" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="9">
-        <v>1</v>
-      </c>
-      <c r="M134" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N134" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O134" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P134" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q134" s="9" t="s">
+      <c r="G135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="9">
+        <v>1</v>
+      </c>
+      <c r="M135" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N135" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P135" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q135" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="R134" s="9" t="s">
+      <c r="R135" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="S134" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T134" s="9" t="s">
+      <c r="S135" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T135" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D136" s="9" t="s">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D137" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E136" s="13" t="s">
+      <c r="E137" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="G136" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K136" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M136" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N136" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O136" s="9" t="s">
+      <c r="G137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O137" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="P136" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S136" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T136" s="9" t="s">
+      <c r="P137" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S137" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T137" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D138" s="10" t="s">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D139" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E139" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="G138" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K138" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M138" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N138" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O138" s="9" t="s">
+      <c r="G139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O139" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="P138" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S138" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T138" s="9" t="s">
+      <c r="P139" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S139" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T139" s="9" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="16"/>
     </row>
     <row r="141" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D141" s="14"/>
@@ -6963,64 +7099,22 @@
       <c r="F141" s="16"/>
     </row>
     <row r="142" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B142" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G142" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K142" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M142" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N142" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O142" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P142" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q142" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="S142" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T142" s="9" t="s">
-        <v>326</v>
-      </c>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="16"/>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B143" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G143" s="9" t="b">
         <v>1</v>
@@ -7044,7 +7138,7 @@
         <v>238</v>
       </c>
       <c r="P143" s="9" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="Q143" s="9" t="s">
         <v>68</v>
@@ -7061,13 +7155,13 @@
         <v>280</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G144" s="9" t="b">
         <v>1</v>
@@ -7088,7 +7182,10 @@
         <v>0</v>
       </c>
       <c r="O144" s="9" t="s">
-        <v>341</v>
+        <v>238</v>
+      </c>
+      <c r="P144" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="Q144" s="9" t="s">
         <v>68</v>
@@ -7100,42 +7197,48 @@
         <v>326</v>
       </c>
     </row>
-    <row r="147" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D147" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="G147" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K147" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M147" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N147" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O147" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P147" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S147" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T147" s="9" t="s">
-        <v>408</v>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B145" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G145" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M145" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N145" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O145" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q145" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S145" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T145" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -7158,7 +7261,7 @@
   <conditionalFormatting sqref="D102">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D140:D141 D92">
+  <conditionalFormatting sqref="D141:D142 D92">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7168,19 +7271,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3991BE-AF49-47D5-B3E6-1CE69C399D99}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2.21875" customWidth="1"/>
     <col min="3" max="3" width="3.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.21875" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="32.88671875" customWidth="1"/>
     <col min="19" max="19" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7223,20 +7329,20 @@
       <c r="N1" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="P1" s="19"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="20"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7309,20 +7415,20 @@
       <c r="N3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="5" t="s">
         <v>61</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="22"/>
+      <c r="T3" s="24"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -7408,58 +7514,79 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+    <row r="6" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
         <v>-1</v>
       </c>
       <c r="M7" s="9" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>238</v>
@@ -7467,66 +7594,43 @@
       <c r="P7" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="Q7" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="T7" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" t="s">
-        <v>371</v>
-      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -7562,16 +7666,17 @@
         <v>68</v>
       </c>
       <c r="R9" s="9"/>
-      <c r="S9" t="s">
-        <v>373</v>
-      </c>
+      <c r="S9" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -7608,18 +7713,15 @@
       </c>
       <c r="R10" s="9"/>
       <c r="S10" t="s">
-        <v>375</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>376</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>395</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -7656,18 +7758,15 @@
       </c>
       <c r="R11" s="9"/>
       <c r="S11" t="s">
-        <v>377</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -7704,18 +7803,18 @@
       </c>
       <c r="R12" s="9"/>
       <c r="S12" t="s">
-        <v>380</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>381</v>
+        <v>400</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -7752,15 +7851,18 @@
       </c>
       <c r="R13" s="9"/>
       <c r="S13" t="s">
-        <v>383</v>
+        <v>401</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -7797,18 +7899,18 @@
       </c>
       <c r="R14" s="9"/>
       <c r="S14" t="s">
-        <v>385</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
+        <v>402</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -7844,19 +7946,16 @@
         <v>68</v>
       </c>
       <c r="R15" s="9"/>
-      <c r="S15" t="s">
-        <v>387</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>378</v>
+      <c r="S15" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -7892,115 +7991,115 @@
         <v>68</v>
       </c>
       <c r="R16" s="9"/>
-      <c r="S16" t="s">
-        <v>389</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>390</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>-1</v>
-      </c>
-      <c r="M19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q19" s="9" t="s">
+      <c r="S16" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q20" s="9" t="s">
+      <c r="R17" s="9"/>
+      <c r="S17" t="s">
+        <v>371</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>240</v>
+      <c r="R18" s="9"/>
+      <c r="S18" t="s">
+        <v>373</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>404</v>
+      <c r="D21" t="s">
+        <v>429</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -8018,19 +8117,19 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M21" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>238</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>239</v>
+        <v>426</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>68</v>
@@ -8045,10 +8144,10 @@
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -8089,6 +8188,377 @@
       </c>
       <c r="T22" s="9" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D27" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="G27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="G28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" s="9"/>
+      <c r="S30" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R31" s="9"/>
+      <c r="S31" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="T31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="T32">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
@@ -1,38 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SelectObjectConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SelectObjectConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA494E10-DBB2-4AEE-BE9A-D99D2E942A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C259EC76-4819-491A-804D-8A724CEE67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="462">
   <si>
     <t>##var</t>
   </si>
@@ -1181,10 +1170,6 @@
   </si>
   <si>
     <t>SelectObject_Monster_WuGui3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true;true;3.5;360</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1420,6 +1405,120 @@
   <si>
     <t>ActionCallShow_Camera_OtherArea</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;4;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_FireSpirit1</t>
+  </si>
+  <si>
+    <t>SelectObject_Monster_FireSpirit2</t>
+  </si>
+  <si>
+    <t>怪物技能-火精灵2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-火精灵1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffExistOrder;false;ByBuffCfgId:Buff_Tower_Debuff_Burning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_FireSpirit3</t>
+  </si>
+  <si>
+    <t>怪物技能-火精灵3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_EarthFire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-火海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-石像2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无冰冻buff优先，改目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffExistOrder;false;ByBuffCfgId:Buff_IceBind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_StoneGolem2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_StoneGolem2_Damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物技能-石像2-伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;4;100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Scorpid1</t>
+  </si>
+  <si>
+    <t>怪物技能-麻痹蝎1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffExistOrder;false;ByBuffCfgId:Buff_Monster_Scorpid1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Scorpid2</t>
+  </si>
+  <si>
+    <t>怪物技能-麻痹蝎2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Scorpid2_Change</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;10;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Imp2</t>
+  </si>
+  <si>
+    <t>怪物技能-小恶魔2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;5;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;20;60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1654,7 +1753,17 @@
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="好 3" xfId="3" xr:uid="{DCAAA978-F80A-40DE-8FAA-894F5C730A0E}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1976,37 +2085,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE145"/>
+  <dimension ref="A1:AE153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G70" sqref="G70:T70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="5.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="9" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" style="9" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="28.77734375" style="9" customWidth="1"/>
-    <col min="16" max="16" width="6.21875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="15.77734375" style="9" customWidth="1"/>
+    <col min="1" max="3" width="2.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="9" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="9" customWidth="1"/>
+    <col min="10" max="10" width="6.25" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="9" customWidth="1"/>
+    <col min="13" max="14" width="8" style="9" customWidth="1"/>
+    <col min="15" max="15" width="28.25" style="9" customWidth="1"/>
+    <col min="16" max="16" width="6.25" style="9" customWidth="1"/>
+    <col min="17" max="17" width="15.75" style="9" customWidth="1"/>
     <col min="18" max="18" width="5" style="9" customWidth="1"/>
-    <col min="19" max="19" width="29.21875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="20.21875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="29.25" style="9" customWidth="1"/>
+    <col min="20" max="20" width="20.25" style="9" customWidth="1"/>
     <col min="21" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2179,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2114,7 +2222,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2179,7 +2287,7 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2216,7 +2324,7 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2393,7 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D6" s="9" t="s">
         <v>100</v>
       </c>
@@ -2329,7 +2437,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D7" s="9" t="s">
         <v>101</v>
       </c>
@@ -2373,7 +2481,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D8" s="9" t="s">
         <v>102</v>
       </c>
@@ -2417,7 +2525,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D9" s="9" t="s">
         <v>103</v>
       </c>
@@ -2461,7 +2569,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D10" s="9" t="s">
         <v>104</v>
       </c>
@@ -2505,7 +2613,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D11" s="9" t="s">
         <v>105</v>
       </c>
@@ -2549,7 +2657,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D12" s="9" t="s">
         <v>106</v>
       </c>
@@ -2593,7 +2701,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D13" s="9" t="s">
         <v>107</v>
       </c>
@@ -2637,7 +2745,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D14" s="9" t="s">
         <v>108</v>
       </c>
@@ -2681,7 +2789,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D15" s="9" t="s">
         <v>109</v>
       </c>
@@ -2725,7 +2833,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="9" t="s">
         <v>110</v>
       </c>
@@ -2769,7 +2877,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D17" s="9" t="s">
         <v>111</v>
       </c>
@@ -2813,7 +2921,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D18" s="9" t="s">
         <v>112</v>
       </c>
@@ -2857,7 +2965,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D19" s="9" t="s">
         <v>113</v>
       </c>
@@ -2901,7 +3009,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D20" s="9" t="s">
         <v>114</v>
       </c>
@@ -2945,7 +3053,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D21" s="9" t="s">
         <v>115</v>
       </c>
@@ -2989,7 +3097,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D22" s="9" t="s">
         <v>116</v>
       </c>
@@ -3033,7 +3141,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D23" s="9" t="s">
         <v>117</v>
       </c>
@@ -3077,7 +3185,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D24" s="9" t="s">
         <v>118</v>
       </c>
@@ -3121,7 +3229,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D25" s="9" t="s">
         <v>119</v>
       </c>
@@ -3141,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="9" t="b">
         <v>1</v>
@@ -3165,7 +3273,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D26" s="9" t="s">
         <v>120</v>
       </c>
@@ -3185,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" s="9" t="b">
         <v>1</v>
@@ -3209,7 +3317,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D27" s="15" t="s">
         <v>121</v>
       </c>
@@ -3253,7 +3361,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D28" s="15" t="s">
         <v>122</v>
       </c>
@@ -3273,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="9" t="b">
         <v>1</v>
@@ -3297,7 +3405,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D29" s="15" t="s">
         <v>123</v>
       </c>
@@ -3341,7 +3449,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D30" s="9" t="s">
         <v>124</v>
       </c>
@@ -3385,7 +3493,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D31" s="9" t="s">
         <v>125</v>
       </c>
@@ -3429,7 +3537,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D32" s="9" t="s">
         <v>126</v>
       </c>
@@ -3449,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M32" s="9" t="b">
         <v>0</v>
@@ -3473,7 +3581,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D33" s="13" t="s">
         <v>127</v>
       </c>
@@ -3517,7 +3625,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D34" s="13" t="s">
         <v>128</v>
       </c>
@@ -3561,7 +3669,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D35" s="13" t="s">
         <v>129</v>
       </c>
@@ -3605,7 +3713,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D36" s="13" t="s">
         <v>187</v>
       </c>
@@ -3628,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="9" t="b">
         <v>1</v>
@@ -3649,7 +3757,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="37" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D37" s="13" t="s">
         <v>188</v>
       </c>
@@ -3672,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="9" t="b">
         <v>1</v>
@@ -3693,7 +3801,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D38" s="13" t="s">
         <v>189</v>
       </c>
@@ -3713,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="9" t="b">
         <v>1</v>
@@ -3737,7 +3845,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D39" s="9" t="s">
         <v>193</v>
       </c>
@@ -3781,7 +3889,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D40" s="9" t="s">
         <v>194</v>
       </c>
@@ -3825,7 +3933,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D41" s="9" t="s">
         <v>195</v>
       </c>
@@ -3869,7 +3977,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D42" s="13" t="s">
         <v>200</v>
       </c>
@@ -3913,7 +4021,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D43" s="13" t="s">
         <v>201</v>
       </c>
@@ -3957,7 +4065,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D44" s="13" t="s">
         <v>202</v>
       </c>
@@ -4001,7 +4109,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="45" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D45" s="13" t="s">
         <v>215</v>
       </c>
@@ -4045,7 +4153,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D46" s="13" t="s">
         <v>216</v>
       </c>
@@ -4089,7 +4197,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D47" s="13" t="s">
         <v>217</v>
       </c>
@@ -4133,10 +4241,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D49" s="11" t="s">
         <v>130</v>
       </c>
@@ -4168,7 +4276,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D50" s="11" t="s">
         <v>131</v>
       </c>
@@ -4200,7 +4308,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D51" s="11" t="s">
         <v>132</v>
       </c>
@@ -4232,7 +4340,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D52" s="11" t="s">
         <v>133</v>
       </c>
@@ -4270,7 +4378,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D53" s="11" t="s">
         <v>134</v>
       </c>
@@ -4308,7 +4416,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D54" s="11" t="s">
         <v>135</v>
       </c>
@@ -4346,7 +4454,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D55" s="11" t="s">
         <v>136</v>
       </c>
@@ -4384,7 +4492,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D56" s="11" t="s">
         <v>137</v>
       </c>
@@ -4416,13 +4524,13 @@
         <v>239</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D57" s="11" t="s">
         <v>138</v>
       </c>
@@ -4454,13 +4562,13 @@
         <v>239</v>
       </c>
       <c r="S57" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T57" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D58" s="9" t="s">
         <v>139</v>
       </c>
@@ -4498,7 +4606,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D59" s="9" t="s">
         <v>140</v>
       </c>
@@ -4536,7 +4644,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D60" s="9" t="s">
         <v>141</v>
       </c>
@@ -4574,7 +4682,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D61" s="9" t="s">
         <v>142</v>
       </c>
@@ -4606,7 +4714,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="62" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D62" s="9" t="s">
         <v>143</v>
       </c>
@@ -4638,7 +4746,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D63" s="9" t="s">
         <v>144</v>
       </c>
@@ -4670,7 +4778,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D64" s="9" t="s">
         <v>145</v>
       </c>
@@ -4702,7 +4810,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D65" s="9" t="s">
         <v>146</v>
       </c>
@@ -4734,7 +4842,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D66" s="9" t="s">
         <v>147</v>
       </c>
@@ -4766,7 +4874,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D67" s="9" t="s">
         <v>148</v>
       </c>
@@ -4804,7 +4912,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D68" s="9" t="s">
         <v>149</v>
       </c>
@@ -4842,7 +4950,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D69" s="9" t="s">
         <v>150</v>
       </c>
@@ -4880,7 +4988,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D70" s="9" t="s">
         <v>151</v>
       </c>
@@ -4918,7 +5026,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D71" s="9" t="s">
         <v>152</v>
       </c>
@@ -4956,7 +5064,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D72" s="9" t="s">
         <v>153</v>
       </c>
@@ -4994,7 +5102,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D73" s="11" t="s">
         <v>154</v>
       </c>
@@ -5032,7 +5140,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D74" s="11" t="s">
         <v>155</v>
       </c>
@@ -5070,7 +5178,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D75" s="11" t="s">
         <v>156</v>
       </c>
@@ -5108,7 +5216,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D76" s="11" t="s">
         <v>209</v>
       </c>
@@ -5146,7 +5254,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D77" s="11" t="s">
         <v>210</v>
       </c>
@@ -5184,7 +5292,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D78" s="11" t="s">
         <v>211</v>
       </c>
@@ -5222,7 +5330,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D79" s="1" t="s">
         <v>264</v>
       </c>
@@ -5260,7 +5368,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
         <v>266</v>
       </c>
@@ -5298,7 +5406,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="s">
         <v>267</v>
       </c>
@@ -5336,7 +5444,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D83" s="9" t="s">
         <v>157</v>
       </c>
@@ -5374,7 +5482,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D84" s="9" t="s">
         <v>269</v>
       </c>
@@ -5412,7 +5520,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="85" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D85" s="9" t="s">
         <v>272</v>
       </c>
@@ -5450,7 +5558,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="s">
         <v>273</v>
       </c>
@@ -5488,7 +5596,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D87" s="9" t="s">
         <v>351</v>
       </c>
@@ -5526,7 +5634,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D88" s="1" t="s">
         <v>274</v>
       </c>
@@ -5561,10 +5669,10 @@
         <v>29</v>
       </c>
       <c r="T88" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="89" spans="4:20" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
         <v>231</v>
       </c>
@@ -5602,7 +5710,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="90" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D90" s="10" t="s">
         <v>220</v>
       </c>
@@ -5637,7 +5745,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D91" s="9" t="s">
         <v>221</v>
       </c>
@@ -5678,7 +5786,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D92" s="14" t="s">
         <v>222</v>
       </c>
@@ -5719,7 +5827,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D93" s="9" t="s">
         <v>354</v>
       </c>
@@ -5760,7 +5868,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D94" s="9" t="s">
         <v>356</v>
       </c>
@@ -5768,7 +5876,7 @@
         <v>355</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G94" s="9" t="b">
         <v>0</v>
@@ -5804,7 +5912,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="95" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D95" s="9" t="s">
         <v>357</v>
       </c>
@@ -5848,7 +5956,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D96" s="9" t="s">
         <v>360</v>
       </c>
@@ -5886,7 +5994,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D97" s="16" t="s">
         <v>365</v>
       </c>
@@ -5927,7 +6035,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D98" s="9" t="s">
         <v>158</v>
       </c>
@@ -5965,7 +6073,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D99" s="9" t="s">
         <v>159</v>
       </c>
@@ -6003,7 +6111,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D100" s="14" t="s">
         <v>160</v>
       </c>
@@ -6041,112 +6149,303 @@
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D101" s="14"/>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D102" s="14"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>282</v>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D101" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="G101" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M101" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="P101" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S101" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T101" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D102" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="G102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="9">
+        <v>1</v>
+      </c>
+      <c r="M102" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N102" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P102" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q102" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="S102" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T102" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D103" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>439</v>
       </c>
       <c r="G103" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H103" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M103" s="9" t="b">
         <v>1</v>
       </c>
       <c r="N103" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="P103" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q103" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="S103" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>284</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="T103" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D104" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="G104" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M104" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N104" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P104" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S104" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T104" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D105" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>285</v>
+        <v>445</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>443</v>
       </c>
       <c r="G105" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H105" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" s="9" t="b">
         <v>0</v>
       </c>
       <c r="L105" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M105" s="9" t="b">
         <v>1</v>
       </c>
       <c r="N105" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="P105" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q105" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="S105" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E106" s="10"/>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E107" s="10"/>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>288</v>
+        <v>29</v>
+      </c>
+      <c r="T105" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D106" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G106" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M106" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N106" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O106" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P106" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q106" s="13"/>
+      <c r="S106" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T106" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="G107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="9">
+        <v>1</v>
+      </c>
+      <c r="M107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P107" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q107" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="S107" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T107" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D108" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="G108" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" s="9" t="b">
         <v>0</v>
@@ -6158,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="N108" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O108" s="9" t="s">
         <v>238</v>
@@ -6167,30 +6466,27 @@
         <v>239</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>68</v>
+        <v>452</v>
       </c>
       <c r="S108" s="9" t="s">
         <v>29</v>
       </c>
       <c r="T108" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B109" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>290</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D109" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>456</v>
       </c>
       <c r="G109" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="9" t="b">
         <v>0</v>
@@ -6199,13 +6495,13 @@
         <v>0</v>
       </c>
       <c r="L109" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M109" s="9" t="b">
         <v>1</v>
       </c>
       <c r="N109" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" s="9" t="s">
         <v>238</v>
@@ -6213,25 +6509,22 @@
       <c r="P109" s="9" t="s">
         <v>239</v>
       </c>
+      <c r="Q109" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="S109" s="9" t="s">
         <v>29</v>
       </c>
       <c r="T109" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B110" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>291</v>
-      </c>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D110" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>292</v>
+        <v>458</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="G110" s="9" t="b">
         <v>1</v>
@@ -6252,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="O110" s="9" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="P110" s="9" t="s">
         <v>239</v>
@@ -6261,68 +6554,27 @@
         <v>29</v>
       </c>
       <c r="T110" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B111" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G111" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K111" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M111" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N111" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O111" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P111" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S111" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T111" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G112" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="9" t="b">
         <v>0</v>
@@ -6331,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M112" s="9" t="b">
         <v>1</v>
@@ -6340,36 +6592,27 @@
         <v>1</v>
       </c>
       <c r="O112" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P112" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q112" s="9" t="s">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="S112" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T112" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B113" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>299</v>
+        <v>162</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="G113" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" s="9" t="b">
         <v>0</v>
@@ -6387,73 +6630,29 @@
         <v>1</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P113" s="9" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="S113" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T113" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B114" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="G114" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K114" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M114" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N114" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O114" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P114" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S114" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T114" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B116" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E116" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E116" s="10" t="s">
         <v>288</v>
       </c>
       <c r="G116" s="9" t="b">
@@ -6475,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="O116" s="9" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="P116" s="9" t="s">
         <v>239</v>
@@ -6487,18 +6686,18 @@
         <v>29</v>
       </c>
       <c r="T116" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B117" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>290</v>
@@ -6522,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="O117" s="9" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="P117" s="9" t="s">
         <v>239</v>
@@ -6531,21 +6730,21 @@
         <v>29</v>
       </c>
       <c r="T117" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G118" s="9" t="b">
         <v>1</v>
@@ -6557,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M118" s="9" t="b">
         <v>1</v>
@@ -6566,80 +6765,168 @@
         <v>1</v>
       </c>
       <c r="O118" s="9" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="P118" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="Q118" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="S118" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T118" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B119" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E119" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O119" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P119" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S119" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T119" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B120" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G120" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K120" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="9">
+        <v>1</v>
+      </c>
+      <c r="M120" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N120" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O120" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P120" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q120" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S120" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T120" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B121" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E121" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G119" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K119" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M119" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N119" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O119" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="P119" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S119" s="9" t="s">
+      <c r="G121" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M121" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N121" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O121" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P121" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S121" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T119" s="9" t="s">
+      <c r="T121" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B122" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="G122" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" s="9" t="b">
         <v>0</v>
@@ -6657,27 +6944,33 @@
         <v>1</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="P122" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="S122" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="T122" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B124" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>23</v>
+        <v>288</v>
       </c>
       <c r="G124" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" s="9" t="b">
         <v>0</v>
@@ -6686,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M124" s="9" t="b">
         <v>1</v>
@@ -6695,27 +6988,36 @@
         <v>1</v>
       </c>
       <c r="O124" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+      <c r="P124" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q124" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="S124" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="T124" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B125" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="G125" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" s="9" t="b">
         <v>0</v>
@@ -6733,27 +7035,33 @@
         <v>1</v>
       </c>
       <c r="O125" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+      <c r="P125" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="S125" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="T125" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="126" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B126" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>25</v>
+        <v>297</v>
       </c>
       <c r="G126" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="9" t="b">
         <v>0</v>
@@ -6762,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M126" s="9" t="b">
         <v>1</v>
@@ -6771,27 +7079,36 @@
         <v>1</v>
       </c>
       <c r="O126" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+      <c r="P126" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q126" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="S126" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="T126" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="127" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B127" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="G127" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="9" t="b">
         <v>0</v>
@@ -6809,100 +7126,30 @@
         <v>1</v>
       </c>
       <c r="O127" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+      <c r="P127" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="S127" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B128" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K128" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M128" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N128" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O128" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S128" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B129" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K129" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M129" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N129" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O129" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="S129" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="T127" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B130" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>411</v>
+        <v>174</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>413</v>
+        <v>22</v>
       </c>
       <c r="G130" s="9" t="b">
         <v>0</v>
@@ -6926,198 +7173,328 @@
         <v>257</v>
       </c>
       <c r="S130" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="132" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B132" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K132" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M132" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N132" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O132" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S132" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="133" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B133" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C133" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M133" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N133" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O133" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S133" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B134" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M134" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N134" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O134" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S134" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B135" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M135" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N135" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S135" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B136" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S136" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B137" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O137" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S137" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="138" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B138" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="G138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="S138" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B141" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C141" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D141" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E141" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="G133" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="9">
-        <v>1</v>
-      </c>
-      <c r="M133" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N133" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O133" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P133" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q133" s="9" t="s">
+      <c r="G141" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="9">
+        <v>1</v>
+      </c>
+      <c r="M141" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N141" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O141" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P141" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q141" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="S133" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T133" s="9" t="s">
+      <c r="S141" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T141" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D135" s="9" t="s">
+    <row r="143" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D143" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G135" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K135" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="9">
-        <v>1</v>
-      </c>
-      <c r="M135" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N135" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O135" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P135" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q135" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R135" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="S135" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T135" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D137" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="G137" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K137" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M137" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N137" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O137" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="P137" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S137" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T137" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D139" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="G139" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M139" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N139" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O139" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="P139" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S139" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T139" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="16"/>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="16"/>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B143" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>333</v>
-      </c>
       <c r="G143" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" s="9" t="b">
         <v>0</v>
@@ -7126,13 +7503,13 @@
         <v>0</v>
       </c>
       <c r="L143" s="9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M143" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" s="9" t="s">
         <v>238</v>
@@ -7143,101 +7520,237 @@
       <c r="Q143" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="R143" s="9" t="s">
+        <v>322</v>
+      </c>
       <c r="S143" s="9" t="s">
         <v>29</v>
       </c>
       <c r="T143" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="145" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D145" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G145" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M145" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N145" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O145" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="P145" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S145" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T145" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B144" s="9" t="s">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D147" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="G147" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K147" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M147" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N147" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="P147" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S147" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T147" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="16"/>
+    </row>
+    <row r="150" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="16"/>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B151" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C151" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G151" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K151" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M151" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N151" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O151" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P151" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q151" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="S151" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T151" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B152" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D152" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E152" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="G144" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K144" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M144" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N144" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O144" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P144" s="9" t="s">
+      <c r="G152" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K152" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M152" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N152" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O152" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P152" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="Q144" s="9" t="s">
+      <c r="Q152" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S144" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T144" s="9" t="s">
+      <c r="S152" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T152" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B145" s="9" t="s">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B153" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C153" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D153" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E153" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="G145" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K145" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M145" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N145" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O145" s="9" t="s">
+      <c r="G153" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K153" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M153" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N153" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O153" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="Q145" s="9" t="s">
+      <c r="Q153" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="S145" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T145" s="9" t="s">
+      <c r="S153" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T153" s="9" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7249,20 +7762,23 @@
     <mergeCell ref="S3:T3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D101">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="D111">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="D149:D150 D92">
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D141:D142 D92">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  <conditionalFormatting sqref="Q106">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7273,24 +7789,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3991BE-AF49-47D5-B3E6-1CE69C399D99}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+    <sheetView topLeftCell="F10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="2.21875" customWidth="1"/>
-    <col min="3" max="3" width="3.77734375" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="32.88671875" customWidth="1"/>
-    <col min="19" max="19" width="34.88671875" customWidth="1"/>
+    <col min="2" max="2" width="2.25" customWidth="1"/>
+    <col min="3" max="3" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="32.875" customWidth="1"/>
+    <col min="19" max="19" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7344,7 +7860,7 @@
       </c>
       <c r="T1" s="22"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7376,7 +7892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -7430,7 +7946,7 @@
       </c>
       <c r="T3" s="24"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -7456,7 +7972,7 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -7514,59 +8030,59 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D6" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>408</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>409</v>
       </c>
       <c r="G7" s="9" t="b">
         <v>1</v>
@@ -7600,10 +8116,10 @@
         <v>29</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -7625,12 +8141,12 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -7667,16 +8183,16 @@
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -7713,15 +8229,15 @@
       </c>
       <c r="R10" s="9"/>
       <c r="S10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -7758,15 +8274,15 @@
       </c>
       <c r="R11" s="9"/>
       <c r="S11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -7803,18 +8319,18 @@
       </c>
       <c r="R12" s="9"/>
       <c r="S12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -7851,18 +8367,18 @@
       </c>
       <c r="R13" s="9"/>
       <c r="S13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -7899,18 +8415,18 @@
       </c>
       <c r="R14" s="9"/>
       <c r="S14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -7947,15 +8463,15 @@
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -7992,18 +8508,18 @@
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -8040,18 +8556,18 @@
       </c>
       <c r="R17" s="9"/>
       <c r="S17" t="s">
+        <v>370</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>371</v>
       </c>
-      <c r="T17" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>372</v>
-      </c>
       <c r="E18" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -8088,18 +8604,18 @@
       </c>
       <c r="R18" s="9"/>
       <c r="S18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -8129,7 +8645,7 @@
         <v>238</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>68</v>
@@ -8142,12 +8658,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -8190,12 +8706,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -8238,12 +8754,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -8286,50 +8802,50 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="4:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D26" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="G26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G26" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>-1</v>
-      </c>
-      <c r="M26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D27" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G27" s="9" t="b">
         <v>1</v>
@@ -8363,15 +8879,15 @@
         <v>29</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="28" spans="4:20" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D28" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G28" s="9" t="b">
         <v>1</v>
@@ -8405,18 +8921,18 @@
         <v>29</v>
       </c>
       <c r="T28" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D30" s="13" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D30" s="13" t="s">
-        <v>421</v>
-      </c>
       <c r="E30" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -8453,21 +8969,21 @@
       </c>
       <c r="R30" s="9"/>
       <c r="S30" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D31" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -8504,21 +9020,21 @@
       </c>
       <c r="R31" s="9"/>
       <c r="S31" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D32" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="F32" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -8555,7 +9071,7 @@
       </c>
       <c r="R32" s="9"/>
       <c r="S32" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T32">
         <v>11</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/SelectObjectConfig/SelectObjectCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\SelectObjectConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C259EC76-4819-491A-804D-8A724CEE67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF99CF23-8BAD-4C39-84B0-B338CE326993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1472,52 +1472,52 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>SelectObject_Monster_Scorpid1</t>
+  </si>
+  <si>
+    <t>怪物技能-麻痹蝎1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffExistOrder;false;ByBuffCfgId:Buff_Monster_Scorpid1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Scorpid2</t>
+  </si>
+  <si>
+    <t>怪物技能-麻痹蝎2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Scorpid2_Change</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹射</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;10;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_Monster_Imp2</t>
+  </si>
+  <si>
+    <t>怪物技能-小恶魔2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;5;360</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true;true;20;60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>true;true;4;100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObject_Monster_Scorpid1</t>
-  </si>
-  <si>
-    <t>怪物技能-麻痹蝎1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffExistOrder;false;ByBuffCfgId:Buff_Monster_Scorpid1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObject_Monster_Scorpid2</t>
-  </si>
-  <si>
-    <t>怪物技能-麻痹蝎2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObject_Monster_Scorpid2_Change</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹射</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true;true;10;360</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectObject_Monster_Imp2</t>
-  </si>
-  <si>
-    <t>怪物技能-小恶魔2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true;true;5;360</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>true;true;20;60</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2088,8 +2088,8 @@
   <dimension ref="A1:AE153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:XFD64"/>
+      <pane ySplit="5" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T78" sqref="K76:T78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4527,7 +4527,7 @@
         <v>29</v>
       </c>
       <c r="T56" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="4:20" x14ac:dyDescent="0.2">
@@ -4565,7 +4565,7 @@
         <v>29</v>
       </c>
       <c r="T57" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="4:20" x14ac:dyDescent="0.2">
@@ -5669,7 +5669,7 @@
         <v>29</v>
       </c>
       <c r="T88" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="4:20" x14ac:dyDescent="0.2">
@@ -6184,7 +6184,7 @@
         <v>29</v>
       </c>
       <c r="T101" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.2">
@@ -6390,42 +6390,42 @@
         <v>30</v>
       </c>
       <c r="T106" s="9" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D107" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="G107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="9">
+        <v>1</v>
+      </c>
+      <c r="M107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N107" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P107" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q107" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="G107" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K107" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="9">
-        <v>1</v>
-      </c>
-      <c r="M107" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N107" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O107" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P107" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q107" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="S107" s="9" t="s">
         <v>29</v>
@@ -6436,11 +6436,11 @@
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D108" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>454</v>
-      </c>
       <c r="G108" s="9" t="b">
         <v>0</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>239</v>
       </c>
       <c r="Q108" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S108" s="9" t="s">
         <v>29</v>
@@ -6477,54 +6477,54 @@
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D109" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F109" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="E109" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="F109" s="9" t="s">
+      <c r="G109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="9">
+        <v>1</v>
+      </c>
+      <c r="M109" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N109" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O109" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="P109" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q109" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="S109" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T109" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="G109" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K109" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="9">
-        <v>1</v>
-      </c>
-      <c r="M109" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N109" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O109" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="P109" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q109" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="S109" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T109" s="9" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D110" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>458</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="G110" s="9" t="b">
         <v>1</v>
